--- a/delta2/evidence/dfir/2020-06-10-dfir--ransom-lockbit--v1.1.xlsx
+++ b/delta2/evidence/dfir/2020-06-10-dfir--ransom-lockbit--v1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/evidence/dfir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA54B6D-B8F9-4C42-9D72-473FE151CA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF446AE3-4209-DF49-82D4-A08B18D2E593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-21100" windowWidth="38340" windowHeight="21100" activeTab="8" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
+    <workbookView xWindow="60" yWindow="-21100" windowWidth="38340" windowHeight="21100" activeTab="1" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Link" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
   <si>
     <t>Description</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>ServiceStartType</t>
-  </si>
-  <si>
-    <t>process-access--winos</t>
   </si>
   <si>
     <t>Access</t>
@@ -347,10 +344,40 @@
 ""icacls \""""D:\*\"""" /grant Everyone:F /T /C /Q"""</t>
   </si>
   <si>
-    <t>cmd-script</t>
-  </si>
-  <si>
     <t>run before ransom</t>
+  </si>
+  <si>
+    <t>edr specific data like [mde]</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>AlertSource [Sigma, EtPro]</t>
+  </si>
+  <si>
+    <t>netcon--</t>
+  </si>
+  <si>
+    <t>filecreate--</t>
+  </si>
+  <si>
+    <t>process-create--</t>
+  </si>
+  <si>
+    <t>script--</t>
+  </si>
+  <si>
+    <t>script--cmd</t>
+  </si>
+  <si>
+    <t>shell--</t>
+  </si>
+  <si>
+    <t>process-access--</t>
+  </si>
+  <si>
+    <t>Ioc Tag Like [TTP, C2, Tool, File, Account, Ip, ProcessSpawn, ProcessInjection, Url]</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1034,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D4" totalsRowShown="0" headerRowDxfId="29">
-  <autoFilter ref="A1:D4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D5" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="A1:D5" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -1037,8 +1064,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L10" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:L10" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L11" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:L11" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7F4E572F-19FC-1C42-BF21-EF3EAA1CF83A}" name="Index"/>
     <tableColumn id="3" xr3:uid="{5246F5AC-4F4A-BC4C-892F-2E08E3349789}" name="DataSource"/>
@@ -1078,8 +1105,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}" name="Table2" displayName="Table2" ref="A1:O4" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:O4" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}" name="Table2" displayName="Table2" ref="A1:O5" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:O5" xr:uid="{5488C31B-B913-0C48-8EC2-BF3FA3FCC2F3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
   <tableColumns count="15">
     <tableColumn id="2" xr3:uid="{C61E54E6-397A-FC46-AAD6-240590F974E3}" name="Index"/>
     <tableColumn id="3" xr3:uid="{65FA3503-F561-914E-AE5F-225C57E6B5DB}" name="DataSource"/>
@@ -1135,8 +1165,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:D2" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D3" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:D3" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D3">
+    <sortCondition ref="A1:A3"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{77268EB9-1251-9745-92E1-436BE6AE585B}" name="Index"/>
     <tableColumn id="3" xr3:uid="{59DDF428-3E0B-6643-8972-9BD2488E3FA7}" name="DataSource"/>
@@ -1471,7 +1504,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1496,10 +1529,10 @@
         <v>15</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>49</v>
@@ -1519,19 +1552,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1583,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1571,10 +1604,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>28</v>
@@ -1592,16 +1625,16 @@
         <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>17</v>
@@ -1616,6 +1649,9 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +1670,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1651,7 +1687,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>28</v>
@@ -1660,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="G1" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>17</v>
@@ -1682,8 +1718,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +1742,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1721,7 +1760,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>28</v>
@@ -1774,11 +1813,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1791,7 +1830,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>20</v>
@@ -1803,18 +1842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1843,6 +1876,20 @@
       </c>
       <c r="D4" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1862,33 +1909,33 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="102.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="153.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1896,7 +1943,9 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1911,11 +1960,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1936,7 +1985,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>28</v>
@@ -1972,16 +2021,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -2079,6 +2126,18 @@
         <v>11</v>
       </c>
       <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2097,7 +2156,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2117,7 +2176,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>28</v>
@@ -2153,6 +2212,9 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2168,11 +2230,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2192,7 +2254,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>28</v>
@@ -2237,21 +2299,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2">
-        <v>35461</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -2262,13 +2315,10 @@
         <v>37</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>35461</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>36</v>
@@ -2282,12 +2332,32 @@
         <v>37</v>
       </c>
       <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
         <v>445</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2308,7 +2378,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2327,7 +2397,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>28</v>
@@ -2336,22 +2406,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>17</v>
@@ -2365,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2467,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>28</v>
@@ -2412,6 +2482,9 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2427,11 +2500,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2444,7 +2517,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>28</v>
@@ -2456,18 +2529,28 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>88</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
